--- a/Courier Company - Rates.xlsx
+++ b/Courier Company - Rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cointab\Human Resource\Hiring\Data Analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Notebboks\CoinTab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>fwd_a_fixed</t>
   </si>
@@ -87,12 +87,24 @@
   </si>
   <si>
     <t>rto_e_additional</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,13 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -474,127 +488,212 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>29.5</v>
       </c>
       <c r="B2" s="2">
         <v>23.6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>33</v>
       </c>
-      <c r="D2" s="2">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
         <v>28.3</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
         <v>40.1</v>
       </c>
-      <c r="F2" s="2">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>38.9</v>
       </c>
-      <c r="G2" s="2">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
         <v>45.4</v>
       </c>
-      <c r="H2" s="2">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
         <v>44.8</v>
       </c>
-      <c r="I2" s="2">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
         <v>56.6</v>
       </c>
-      <c r="J2" s="2">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>55.5</v>
       </c>
-      <c r="K2" s="2">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>13.6</v>
       </c>
-      <c r="L2" s="2">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>23.6</v>
       </c>
-      <c r="M2" s="2">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
         <v>20.5</v>
       </c>
-      <c r="N2" s="2">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
         <v>28.3</v>
       </c>
-      <c r="O2" s="2">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
         <v>31.9</v>
       </c>
-      <c r="P2" s="2">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>38.9</v>
       </c>
-      <c r="Q2" s="2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
         <v>41.3</v>
       </c>
-      <c r="R2" s="2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
         <v>44.8</v>
       </c>
-      <c r="S2" s="2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>50.7</v>
       </c>
-      <c r="T2" s="2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>55.5</v>
       </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>